--- a/Datasets/1_Rasulov_133/result_133.xlsx
+++ b/Datasets/1_Rasulov_133/result_133.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\coursera\NUU_article\Datasets\1_Rasulov_133\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C333F3-FECF-4E86-A816-1694086C7147}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DF424-789F-4BF9-AE0B-4F3620EF06B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:F54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -614,16 +614,8 @@
       <c r="G2">
         <v>45</v>
       </c>
-      <c r="H2">
-        <f>IF(C2=$C$59,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>IF(F2=$F$59,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -645,16 +637,8 @@
       <c r="G3">
         <v>42</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H58" si="0">IF(C3=$C$59,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I58" si="1">IF(F3=$F$59,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -676,16 +660,8 @@
       <c r="G4">
         <v>41</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -707,16 +683,8 @@
       <c r="G5">
         <v>18</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -738,16 +706,8 @@
       <c r="G6">
         <v>19</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -769,16 +729,8 @@
       <c r="G7">
         <v>17</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -800,16 +752,8 @@
       <c r="G8">
         <v>47</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -831,16 +775,8 @@
       <c r="G9">
         <v>43</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -862,16 +798,8 @@
       <c r="G10">
         <v>40</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -893,16 +821,8 @@
       <c r="G11">
         <v>46</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -924,16 +844,8 @@
       <c r="G12">
         <v>44</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -955,16 +867,8 @@
       <c r="G13">
         <v>39</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -986,16 +890,8 @@
       <c r="G14">
         <v>33</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1017,16 +913,8 @@
       <c r="G15">
         <v>26</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1048,16 +936,8 @@
       <c r="G16">
         <v>22</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1079,16 +959,8 @@
       <c r="G17">
         <v>24</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1110,16 +982,8 @@
       <c r="G18">
         <v>21</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1141,16 +1005,8 @@
       <c r="G19">
         <v>20</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1172,16 +1028,8 @@
       <c r="G20">
         <v>32</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1203,16 +1051,8 @@
       <c r="G21">
         <v>27</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1234,16 +1074,8 @@
       <c r="G22">
         <v>31</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1265,16 +1097,8 @@
       <c r="G23">
         <v>55</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1296,16 +1120,8 @@
       <c r="G24">
         <v>54</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1327,16 +1143,8 @@
       <c r="G25">
         <v>53</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1358,16 +1166,8 @@
       <c r="G26">
         <v>9</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1389,16 +1189,8 @@
       <c r="G27">
         <v>28</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1420,16 +1212,8 @@
       <c r="G28">
         <v>16</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1451,16 +1235,8 @@
       <c r="G29">
         <v>29</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1482,16 +1258,8 @@
       <c r="G30">
         <v>25</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1513,16 +1281,8 @@
       <c r="G31">
         <v>14</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1544,16 +1304,8 @@
       <c r="G32">
         <v>34</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1575,16 +1327,8 @@
       <c r="G33">
         <v>35</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1606,16 +1350,8 @@
       <c r="G34">
         <v>30</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1637,16 +1373,8 @@
       <c r="G35">
         <v>50</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1668,16 +1396,8 @@
       <c r="G36">
         <v>48</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1699,16 +1419,8 @@
       <c r="G37">
         <v>49</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1730,16 +1442,8 @@
       <c r="G38">
         <v>37</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1761,16 +1465,8 @@
       <c r="G39">
         <v>36</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1792,16 +1488,8 @@
       <c r="G40">
         <v>38</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1823,16 +1511,8 @@
       <c r="G41">
         <v>23</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1854,16 +1534,8 @@
       <c r="G42">
         <v>4</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1885,16 +1557,8 @@
       <c r="G43">
         <v>13</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1916,16 +1580,8 @@
       <c r="G44">
         <v>10</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1947,16 +1603,8 @@
       <c r="G45">
         <v>11</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1978,16 +1626,8 @@
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2009,16 +1649,8 @@
       <c r="G47">
         <v>8</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2040,16 +1672,8 @@
       <c r="G48">
         <v>5</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2071,16 +1695,8 @@
       <c r="G49">
         <v>3</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2102,16 +1718,8 @@
       <c r="G50">
         <v>15</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2133,16 +1741,8 @@
       <c r="G51">
         <v>7</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2164,16 +1764,8 @@
       <c r="G52">
         <v>12</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2195,16 +1787,8 @@
       <c r="G53">
         <v>6</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2226,16 +1810,8 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2257,16 +1833,8 @@
       <c r="G55">
         <v>2</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2288,16 +1856,8 @@
       <c r="G56">
         <v>51</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2319,16 +1879,8 @@
       <c r="G57">
         <v>56</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2349,24 +1901,6 @@
       </c>
       <c r="G58">
         <v>52</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <f>MIN(C2:C58)</f>
-        <v>8.9812317525243372E-3</v>
-      </c>
-      <c r="F59">
-        <f>MIN(F2:F58)</f>
-        <v>1.1716827187725281E-2</v>
       </c>
     </row>
   </sheetData>
